--- a/face/111.xlsx
+++ b/face/111.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="model" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="63">
   <si>
     <t>20H1</t>
   </si>
@@ -28,6 +28,12 @@
     <t>18Q4</t>
   </si>
   <si>
+    <t>17Q4</t>
+  </si>
+  <si>
+    <t>16Q4</t>
+  </si>
+  <si>
     <t>利润表</t>
   </si>
   <si>
@@ -37,67 +43,76 @@
     <t>已赚保费</t>
   </si>
   <si>
+    <t>投資收益淨額</t>
+  </si>
+  <si>
+    <t>利息收入、股息收入以及透過損益列賬的證券及可供出售證券已實現收益或虧損的總和</t>
+  </si>
+  <si>
+    <t>收入合計</t>
+  </si>
+  <si>
+    <t>已產生賠款</t>
+  </si>
+  <si>
+    <t>手續費及佣金</t>
+  </si>
+  <si>
+    <t>支付給保險代理人的費用以銷售我們的保險產品</t>
+  </si>
+  <si>
+    <t>業務及管理費</t>
+  </si>
+  <si>
+    <t>除税前利润</t>
+  </si>
+  <si>
+    <t>所得稅開支</t>
+  </si>
+  <si>
+    <t>税后盈利</t>
+  </si>
+  <si>
+    <t>股东应占盈利</t>
+  </si>
+  <si>
+    <t>同比增长率</t>
+  </si>
+  <si>
+    <t>净利率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">賠付率 </t>
+  </si>
+  <si>
+    <t>賠付率=已產生賠款淨額÷ 已賺保費淨額</t>
+  </si>
+  <si>
+    <t>費用率</t>
+  </si>
+  <si>
+    <t>費用率=業務及管理費    ÷ 已賺保費淨額</t>
+  </si>
+  <si>
+    <t>綜合成本率</t>
+  </si>
+  <si>
+    <t>綜合成本率=賠付率 + 費用率</t>
+  </si>
+  <si>
+    <t>資產總額</t>
+  </si>
+  <si>
     <t>投資收益</t>
   </si>
   <si>
-    <t>收入合計</t>
-  </si>
-  <si>
-    <t>已產生賠款</t>
-  </si>
-  <si>
-    <t>手續費及佣金</t>
-  </si>
-  <si>
-    <t>業務及管理費</t>
-  </si>
-  <si>
-    <t>除税前利润</t>
-  </si>
-  <si>
-    <t>所得稅開支</t>
-  </si>
-  <si>
-    <t>税后盈利</t>
-  </si>
-  <si>
-    <t>股东应占盈利</t>
-  </si>
-  <si>
-    <t>同比增长率</t>
-  </si>
-  <si>
-    <t>净利率</t>
-  </si>
-  <si>
-    <t>行政費用</t>
-  </si>
-  <si>
-    <t>所得税</t>
-  </si>
-  <si>
-    <t>17Q4</t>
-  </si>
-  <si>
-    <t>16Q4</t>
-  </si>
-  <si>
-    <t>資產總額</t>
-  </si>
-  <si>
     <t>權益總額</t>
   </si>
   <si>
     <t>母公司股東應佔權益</t>
   </si>
   <si>
-    <t xml:space="preserve">賠付率 </t>
-  </si>
-  <si>
-    <t>費用率</t>
-  </si>
-  <si>
-    <t>綜合成本率</t>
+    <t>20Q4</t>
   </si>
   <si>
     <t>19H1</t>
@@ -125,6 +140,36 @@
   </si>
   <si>
     <t>尊享系列</t>
+  </si>
+  <si>
+    <t>保费</t>
+  </si>
+  <si>
+    <t>自有平台保费</t>
+  </si>
+  <si>
+    <t>自有平台占比</t>
+  </si>
+  <si>
+    <t>APP、小程序、公眾號、手機官網等</t>
+  </si>
+  <si>
+    <t>健康險</t>
+  </si>
+  <si>
+    <t>保證險</t>
+  </si>
+  <si>
+    <t>意外險</t>
+  </si>
+  <si>
+    <t>機動車輛險</t>
+  </si>
+  <si>
+    <t>退貨運費險</t>
+  </si>
+  <si>
+    <t>总计</t>
   </si>
   <si>
     <t>1月</t>
@@ -168,11 +213,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="#,##0_);[Red]\(#,##0\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -219,6 +264,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -227,7 +287,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,24 +309,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -279,32 +354,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,15 +369,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -333,15 +378,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,10 +393,18 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -384,13 +429,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,7 +447,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,67 +507,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,7 +519,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,43 +555,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,19 +579,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,15 +681,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -660,6 +696,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -671,8 +740,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -692,32 +763,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -726,10 +771,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -738,138 +783,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -892,17 +937,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1256,10 +1307,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1267,7 +1318,7 @@
     <col min="1" max="1" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="2:16">
+    <row r="1" ht="14.25" spans="2:17">
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1277,9 +1328,13 @@
       <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="13"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -1289,10 +1344,11 @@
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
-    </row>
-    <row r="2" ht="14.25" spans="1:16">
-      <c r="A2" s="12" t="s">
-        <v>3</v>
+      <c r="Q1" s="2"/>
+    </row>
+    <row r="2" ht="14.25" spans="1:17">
+      <c r="A2" s="14" t="s">
+        <v>5</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1309,10 +1365,11 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-    </row>
-    <row r="3" ht="14.25" spans="1:16">
+      <c r="Q2" s="2"/>
+    </row>
+    <row r="3" ht="14.25" spans="1:17">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2">
@@ -1333,9 +1390,10 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
-    </row>
-    <row r="4" ht="14.25" spans="1:16">
-      <c r="A4" s="10"/>
+      <c r="Q3" s="2"/>
+    </row>
+    <row r="4" ht="14.25" spans="1:17">
+      <c r="A4" s="12"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1351,10 +1409,11 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
-    </row>
-    <row r="5" ht="14.25" spans="1:16">
+      <c r="Q4" s="2"/>
+    </row>
+    <row r="5" ht="14.25" spans="1:17">
       <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2">
         <v>74</v>
@@ -1377,10 +1436,11 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
-    </row>
-    <row r="6" ht="14.25" spans="1:16">
-      <c r="A6" s="10" t="s">
-        <v>6</v>
+      <c r="Q5" s="2"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:18">
+      <c r="A6" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="B6" s="2">
         <v>9</v>
@@ -1394,19 +1454,23 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-    </row>
-    <row r="7" ht="14.25" spans="1:16">
+      <c r="H6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+    </row>
+    <row r="7" ht="14.25" spans="1:17">
       <c r="A7" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2">
         <v>86</v>
@@ -1429,8 +1493,9 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
-    </row>
-    <row r="8" ht="14.25" spans="1:16">
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" ht="14.25" spans="1:17">
       <c r="A8" s="3"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1447,10 +1512,11 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
-    </row>
-    <row r="9" ht="14.25" spans="1:16">
+      <c r="Q8" s="2"/>
+    </row>
+    <row r="9" ht="14.25" spans="1:17">
       <c r="A9" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2">
         <v>-42</v>
@@ -1473,10 +1539,11 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
-    </row>
-    <row r="10" ht="14.25" spans="1:16">
+      <c r="Q9" s="2"/>
+    </row>
+    <row r="10" ht="14.25" spans="1:17">
       <c r="A10" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2">
         <v>-4</v>
@@ -1490,19 +1557,22 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
+      <c r="H10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
-    </row>
-    <row r="11" ht="14.25" spans="1:16">
+      <c r="Q10" s="2"/>
+    </row>
+    <row r="11" ht="14.25" spans="1:17">
       <c r="A11" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2">
         <v>-33</v>
@@ -1525,10 +1595,11 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
-    </row>
-    <row r="12" ht="14.25" spans="1:16">
+      <c r="Q11" s="2"/>
+    </row>
+    <row r="12" ht="14.25" spans="1:17">
       <c r="A12" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2">
         <v>3</v>
@@ -1551,10 +1622,11 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
-    </row>
-    <row r="13" ht="14.25" spans="1:16">
+      <c r="Q12" s="2"/>
+    </row>
+    <row r="13" ht="14.25" spans="1:17">
       <c r="A13" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1571,10 +1643,11 @@
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
-    </row>
-    <row r="14" ht="14.25" spans="1:16">
+      <c r="Q13" s="2"/>
+    </row>
+    <row r="14" ht="14.25" spans="1:17">
       <c r="A14" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2">
         <v>4</v>
@@ -1597,10 +1670,11 @@
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
-    </row>
-    <row r="15" ht="14.25" spans="1:16">
+      <c r="Q14" s="2"/>
+    </row>
+    <row r="15" ht="14.25" spans="1:17">
       <c r="A15" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B15" s="2">
         <v>5</v>
@@ -1623,10 +1697,11 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
-    </row>
-    <row r="16" ht="14.25" spans="1:16">
-      <c r="A16" s="10" t="s">
-        <v>15</v>
+      <c r="Q15" s="2"/>
+    </row>
+    <row r="16" ht="14.25" spans="1:17">
+      <c r="A16" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1643,10 +1718,11 @@
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
-    </row>
-    <row r="17" ht="14.25" spans="1:16">
+      <c r="Q16" s="2"/>
+    </row>
+    <row r="17" ht="14.25" spans="1:17">
       <c r="A17" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1663,11 +1739,1237 @@
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
-    </row>
-    <row r="18" ht="14.25" spans="1:16">
-      <c r="A18" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="Q17" s="2"/>
+    </row>
+    <row r="18" ht="14.25" spans="1:15">
+      <c r="A18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="8">
+        <v>0.57</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0.67</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0.42</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="2"/>
+    </row>
+    <row r="19" ht="14.25" spans="1:15">
+      <c r="A19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="8">
+        <v>0.47</v>
+      </c>
+      <c r="C19" s="8">
+        <v>0.46</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0.61</v>
+      </c>
+      <c r="E19" s="8">
+        <v>0.74</v>
+      </c>
+      <c r="F19" s="8">
+        <v>0.63</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="2"/>
+    </row>
+    <row r="20" ht="14.25" spans="1:15">
+      <c r="A20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="8">
+        <v>1.03</v>
+      </c>
+      <c r="C20" s="8">
+        <v>1.13</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1.21</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1.33</v>
+      </c>
+      <c r="F20" s="8">
+        <v>1.05</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="2"/>
+    </row>
+    <row r="21" ht="14.25" spans="2:17">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+    </row>
+    <row r="22" ht="14.25" spans="2:17">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+    </row>
+    <row r="23" ht="14.25" spans="2:17">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+    </row>
+    <row r="24" ht="14.25" spans="2:17">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+    </row>
+    <row r="25" ht="14.25" spans="2:17">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+    </row>
+    <row r="26" ht="14.25" spans="2:17">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+    </row>
+    <row r="27" ht="14.25" spans="2:17">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+    </row>
+    <row r="28" ht="14.25" spans="2:17">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+    </row>
+    <row r="29" ht="14.25" spans="2:17">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+    </row>
+    <row r="30" ht="14.25" spans="2:17">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+    </row>
+    <row r="31" ht="14.25" spans="2:17">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="H6:R6"/>
+    <mergeCell ref="H10:N10"/>
+    <mergeCell ref="H18:N18"/>
+    <mergeCell ref="H19:N19"/>
+    <mergeCell ref="H20:N20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:N24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="2:14">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" ht="14.25" spans="2:14">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" ht="14.25" spans="1:14">
+      <c r="A5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2">
+        <v>309</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:14">
+      <c r="A6" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" ht="14.25" spans="1:14">
+      <c r="A7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2">
+        <v>165</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" ht="14.25" spans="1:14">
+      <c r="A8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2">
+        <v>149</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" ht="14.25" spans="1:14">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" ht="14.25" spans="2:14">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" ht="14.25" spans="2:14">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" ht="14.25" spans="2:14">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" ht="14.25" spans="2:14">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+    </row>
+    <row r="14" ht="14.25" spans="2:14">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" ht="14.25" spans="2:14">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" ht="14.25" spans="2:14">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" ht="14.25" spans="2:14">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+    </row>
+    <row r="18" ht="14.25" spans="2:14">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+    </row>
+    <row r="19" ht="14.25" spans="2:14">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+    </row>
+    <row r="20" ht="14.25" spans="2:14">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+    </row>
+    <row r="21" ht="14.25" spans="2:14">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+    </row>
+    <row r="22" ht="14.25" spans="2:14">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" ht="14.25" spans="2:14">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+    </row>
+    <row r="24" ht="14.25" spans="2:14">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:X45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9">
+      <c r="B1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="2:24">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+    </row>
+    <row r="3" ht="14.25" spans="1:24">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+    </row>
+    <row r="4" ht="14.25" spans="1:24">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2">
+        <v>48</v>
+      </c>
+      <c r="D4" s="2">
+        <v>29</v>
+      </c>
+      <c r="E4" s="2">
+        <v>30</v>
+      </c>
+      <c r="F4" s="2">
+        <v>14</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="8">
+        <v>0.68</v>
+      </c>
+      <c r="I4" s="8">
+        <v>1.16</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+    </row>
+    <row r="5" ht="14.25" spans="1:24">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2">
+        <v>37</v>
+      </c>
+      <c r="D5" s="2">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2">
+        <v>19</v>
+      </c>
+      <c r="F5" s="2">
+        <v>14</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="8">
+        <v>1.31</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:24">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2">
+        <v>31</v>
+      </c>
+      <c r="D6" s="2">
+        <v>35</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+    </row>
+    <row r="7" ht="14.25" spans="1:24">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+    </row>
+    <row r="8" ht="14.25" spans="1:24">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2">
+        <v>15</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+    </row>
+    <row r="9" ht="14.25" spans="1:24">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2">
+        <v>146</v>
+      </c>
+      <c r="D9" s="2">
+        <v>112</v>
+      </c>
+      <c r="E9" s="2">
+        <v>68</v>
+      </c>
+      <c r="F9" s="2">
+        <v>59</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+    </row>
+    <row r="10" ht="14.25" spans="2:24">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+    </row>
+    <row r="11" ht="14.25" spans="2:24">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+    </row>
+    <row r="12" ht="14.25" spans="1:24">
+      <c r="A12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+    </row>
+    <row r="13" ht="14.25" spans="1:24">
+      <c r="A13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2">
+        <v>43</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2">
+        <v>27</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="8">
+        <v>1.46</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+    </row>
+    <row r="14" ht="14.25" spans="1:24">
+      <c r="A14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2">
+        <v>9</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+    </row>
+    <row r="15" ht="14.25" spans="1:24">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="8">
+        <v>0.24</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0.08</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0.34</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+    </row>
+    <row r="16" ht="14.25" spans="2:24">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+    </row>
+    <row r="17" ht="14.25" spans="2:24">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+    </row>
+    <row r="18" ht="14.25" spans="2:24">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1683,11 +2985,16 @@
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
-    </row>
-    <row r="19" ht="14.25" spans="1:16">
-      <c r="A19" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+    </row>
+    <row r="19" ht="14.25" spans="2:24">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1703,8 +3010,19 @@
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
-    </row>
-    <row r="20" ht="14.25" spans="2:16">
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+    </row>
+    <row r="20" ht="14.25" spans="1:24">
+      <c r="A20" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1720,15 +3038,36 @@
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
-    </row>
-    <row r="21" ht="14.25" spans="2:16">
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+    </row>
+    <row r="21" ht="14.25" spans="1:24">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
       <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="C21" s="2">
+        <v>46</v>
+      </c>
+      <c r="D21" s="2">
+        <v>24</v>
+      </c>
+      <c r="E21" s="2">
+        <v>30</v>
+      </c>
+      <c r="F21" s="2">
+        <v>13</v>
+      </c>
       <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+      <c r="H21" s="8">
+        <v>0.96</v>
+      </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -1737,15 +3076,36 @@
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
-    </row>
-    <row r="22" ht="14.25" spans="2:16">
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+    </row>
+    <row r="22" ht="14.25" spans="1:24">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="C22" s="2">
+        <v>29</v>
+      </c>
+      <c r="D22" s="2">
+        <v>23</v>
+      </c>
+      <c r="E22" s="2">
+        <v>7</v>
+      </c>
+      <c r="F22" s="2">
+        <v>16</v>
+      </c>
       <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="H22" s="8">
+        <v>0.3</v>
+      </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
@@ -1754,15 +3114,36 @@
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
-    </row>
-    <row r="23" ht="14.25" spans="2:16">
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+    </row>
+    <row r="23" ht="14.25" spans="1:24">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="C23" s="2">
+        <v>18</v>
+      </c>
+      <c r="D23" s="2">
+        <v>22</v>
+      </c>
+      <c r="E23" s="2">
+        <v>6</v>
+      </c>
+      <c r="F23" s="2">
+        <v>8</v>
+      </c>
       <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="H23" s="8">
+        <v>-0.18</v>
+      </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -1771,15 +3152,36 @@
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
-    </row>
-    <row r="24" ht="14.25" spans="2:16">
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+    </row>
+    <row r="24" ht="14.25" spans="1:24">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="C24" s="2">
+        <v>13</v>
+      </c>
+      <c r="D24" s="2">
+        <v>11</v>
+      </c>
+      <c r="E24" s="2">
+        <v>5</v>
+      </c>
+      <c r="F24" s="2">
+        <v>6</v>
+      </c>
       <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+      <c r="H24" s="8">
+        <v>0.1</v>
+      </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -1788,8 +3190,16 @@
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
-    </row>
-    <row r="25" ht="14.25" spans="2:16">
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+    </row>
+    <row r="25" ht="14.25" spans="2:24">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1805,15 +3215,36 @@
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
-    </row>
-    <row r="26" ht="14.25" spans="2:16">
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+    </row>
+    <row r="26" ht="14.25" spans="1:24">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="C26" s="2">
+        <v>31</v>
+      </c>
+      <c r="D26" s="2">
+        <v>11</v>
+      </c>
+      <c r="E26" s="2">
+        <v>16</v>
+      </c>
+      <c r="F26" s="2">
+        <v>10</v>
+      </c>
       <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+      <c r="H26" s="8">
+        <v>1.9</v>
+      </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -1822,16 +3253,39 @@
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
-    </row>
-    <row r="27" ht="14.25" spans="2:16">
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+    </row>
+    <row r="27" ht="14.25" spans="1:24">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="C27" s="2">
+        <v>146</v>
+      </c>
+      <c r="D27" s="2">
+        <v>112</v>
+      </c>
+      <c r="E27" s="2">
+        <v>68</v>
+      </c>
+      <c r="F27" s="2">
+        <v>59</v>
+      </c>
       <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
+      <c r="H27" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="I27" s="8">
+        <v>0.15</v>
+      </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
@@ -1839,16 +3293,29 @@
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
-    </row>
-    <row r="28" ht="14.25" spans="2:16">
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+    </row>
+    <row r="28" ht="14.25" spans="1:24">
+      <c r="A28" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="E28" s="2">
+        <v>10</v>
+      </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -1856,12 +3323,29 @@
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
-    </row>
-    <row r="29" ht="14.25" spans="2:16">
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+    </row>
+    <row r="29" ht="14.25" spans="1:24">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
       <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="C29" s="8">
+        <v>0.08</v>
+      </c>
+      <c r="D29" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="E29" s="8">
+        <v>0.16</v>
+      </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -1873,8 +3357,16 @@
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
-    </row>
-    <row r="30" ht="14.25" spans="2:16">
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+    </row>
+    <row r="30" ht="14.25" spans="2:24">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1890,8 +3382,16 @@
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
-    </row>
-    <row r="31" ht="14.25" spans="2:16">
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+    </row>
+    <row r="31" ht="14.25" spans="2:24">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1907,656 +3407,369 @@
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+    </row>
+    <row r="32" ht="14.25" spans="2:24">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+    </row>
+    <row r="33" ht="14.25" spans="2:24">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+    </row>
+    <row r="34" ht="14.25" spans="2:24">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+    </row>
+    <row r="35" ht="14.25" spans="2:24">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+    </row>
+    <row r="36" ht="14.25" spans="2:24">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+    </row>
+    <row r="37" ht="14.25" spans="2:24">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+    </row>
+    <row r="38" ht="14.25" spans="2:24">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
+    </row>
+    <row r="39" ht="14.25" spans="2:24">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
+    </row>
+    <row r="40" ht="14.25" spans="2:24">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
+      <c r="X40" s="2"/>
+    </row>
+    <row r="41" ht="14.25" spans="2:24">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+      <c r="X41" s="2"/>
+    </row>
+    <row r="42" ht="14.25" spans="2:24">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+      <c r="X42" s="2"/>
+    </row>
+    <row r="43" ht="14.25" spans="2:24">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="2"/>
+      <c r="X43" s="2"/>
+    </row>
+    <row r="44" ht="14.25" spans="2:24">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
+      <c r="X44" s="2"/>
+    </row>
+    <row r="45" ht="14.25" spans="2:24">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="2"/>
+      <c r="X45" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:N27"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:6">
-      <c r="B1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" spans="2:14">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-    </row>
-    <row r="4" ht="14.25" spans="2:14">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-    </row>
-    <row r="5" ht="14.25" spans="1:14">
-      <c r="A5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2">
-        <v>309</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-    </row>
-    <row r="6" ht="14.25" spans="1:14">
-      <c r="A6" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-    </row>
-    <row r="7" ht="14.25" spans="1:14">
-      <c r="A7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2">
-        <v>165</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" ht="14.25" spans="1:14">
-      <c r="A8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2">
-        <v>149</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-    </row>
-    <row r="9" ht="14.25" spans="1:14">
-      <c r="A9" s="3"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-    </row>
-    <row r="10" ht="14.25" spans="1:14">
-      <c r="A10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="11">
-        <v>0.57</v>
-      </c>
-      <c r="C10" s="11">
-        <v>0.67</v>
-      </c>
-      <c r="D10" s="11">
-        <v>0.6</v>
-      </c>
-      <c r="E10" s="11">
-        <v>0.6</v>
-      </c>
-      <c r="F10" s="11">
-        <v>0.42</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" ht="14.25" spans="1:14">
-      <c r="A11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="11">
-        <v>0.47</v>
-      </c>
-      <c r="C11" s="11">
-        <v>0.46</v>
-      </c>
-      <c r="D11" s="11">
-        <v>0.61</v>
-      </c>
-      <c r="E11" s="11">
-        <v>0.74</v>
-      </c>
-      <c r="F11" s="11">
-        <v>0.63</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" ht="14.25" spans="1:14">
-      <c r="A12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="11">
-        <v>1.03</v>
-      </c>
-      <c r="C12" s="11">
-        <v>1.13</v>
-      </c>
-      <c r="D12" s="11">
-        <v>1.21</v>
-      </c>
-      <c r="E12" s="11">
-        <v>1.33</v>
-      </c>
-      <c r="F12" s="11">
-        <v>1.05</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" ht="14.25" spans="2:14">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" ht="14.25" spans="2:14">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-    </row>
-    <row r="15" ht="14.25" spans="2:14">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-    </row>
-    <row r="16" ht="14.25" spans="2:14">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-    </row>
-    <row r="17" ht="14.25" spans="2:14">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-    </row>
-    <row r="18" ht="14.25" spans="2:14">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-    </row>
-    <row r="19" ht="14.25" spans="2:14">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-    </row>
-    <row r="20" ht="14.25" spans="2:14">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-    </row>
-    <row r="21" ht="14.25" spans="2:14">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-    </row>
-    <row r="22" ht="14.25" spans="2:14">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-    </row>
-    <row r="23" ht="14.25" spans="2:14">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-    </row>
-    <row r="24" ht="14.25" spans="2:14">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-    </row>
-    <row r="25" ht="14.25" spans="2:14">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-    </row>
-    <row r="26" ht="14.25" spans="2:14">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-    </row>
-    <row r="27" ht="14.25" spans="2:14">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:X18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="3:9">
-      <c r="C1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" spans="1:1">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6">
-        <v>48</v>
-      </c>
-      <c r="D6">
-        <v>29</v>
-      </c>
-      <c r="E6">
-        <v>30</v>
-      </c>
-      <c r="F6">
-        <v>14</v>
-      </c>
-      <c r="H6" s="8">
-        <v>0.68</v>
-      </c>
-      <c r="I6" s="8">
-        <v>1.16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7">
-        <v>37</v>
-      </c>
-      <c r="D7">
-        <v>16</v>
-      </c>
-      <c r="E7">
-        <v>19</v>
-      </c>
-      <c r="F7">
-        <v>14</v>
-      </c>
-      <c r="H7" s="8">
-        <v>1.31</v>
-      </c>
-      <c r="I7" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8">
-        <v>31</v>
-      </c>
-      <c r="D8">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9">
-        <v>13</v>
-      </c>
-      <c r="D9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10">
-        <v>13</v>
-      </c>
-      <c r="D10">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11">
-        <v>146</v>
-      </c>
-      <c r="D11">
-        <v>112</v>
-      </c>
-      <c r="E11">
-        <v>68</v>
-      </c>
-      <c r="F11">
-        <v>59</v>
-      </c>
-      <c r="H11" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="I11" s="8">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18">
-        <v>43</v>
-      </c>
-      <c r="E18">
-        <v>27</v>
-      </c>
-      <c r="H18" s="8">
-        <v>1.46</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="K7:X7"/>
+  <mergeCells count="2">
+    <mergeCell ref="K5:X5"/>
+    <mergeCell ref="K15:P15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2580,71 +3793,71 @@
   <sheetData>
     <row r="1" ht="14.25" spans="2:24">
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="N1" s="5"/>
       <c r="O1" s="1" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="2:22">
@@ -2672,7 +3885,7 @@
     </row>
     <row r="4" ht="14.25" spans="1:22">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
